--- a/medicine/Sexualité et sexologie/Shere_Hite/Shere_Hite.xlsx
+++ b/medicine/Sexualité et sexologie/Shere_Hite/Shere_Hite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Shere Hite, née Shirley Diana Gregory le 2 novembre 1942 à Saint-Joseph (Missouri) aux États-Unis et morte le 9 septembre 2020 à Tottenham (Grand Londres, Royaume-Uni)[1], est une sexologue et essayiste américaine[2]. Après avoir subi de multiples attaques, tant pour ses travaux que pour ses positions, elle renonce en 1995 à la citoyenneté américaine et prend la citoyenneté allemande.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shere Hite, née Shirley Diana Gregory le 2 novembre 1942 à Saint-Joseph (Missouri) aux États-Unis et morte le 9 septembre 2020 à Tottenham (Grand Londres, Royaume-Uni), est une sexologue et essayiste américaine. Après avoir subi de multiples attaques, tant pour ses travaux que pour ses positions, elle renonce en 1995 à la citoyenneté américaine et prend la citoyenneté allemande.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Shere Hite grandit dans le Missouri, élevée par des grands-parents chrétiens et pratiquants[3],[4],[5].
-Après avoir obtenu en 1971 une maîtrise d'histoire à l'université Columbia[5], elle commence à fréquenter les milieux militants, défile contre la guerre du Viêt-nam et milite pour l'avortement aux côtés des féministes Ti-Grace Atkinson et Kate Millett.
-Shere Hite publie son premier rapport, le Rapport Hite, en 1976[5]. Dans cet ouvrage, en s'appuyant sur les réponses reçues à la suite de l'envoi de milliers de questionnaires aux femmes américaines, elle démontre par une analyse statistique des réponses que la plupart des femmes parviennent souvent à l'orgasme seules par des pratiques masturbatoires et restent insatisfaites de leurs relations avec leurs partenaires masculins[5],[6],[7]. Le livre est traduit dans une quinzaine de langues[8].
-En 1981, elle publie un autre rapport sur la sexualité masculine[8]. À la fin des années 1980, après la publication d'un rapport en 1987 consacré aux liens entre les femmes et l'amour dans lequel elle déclare que la majorité des femmes mariées depuis plus de cinq ans essayent d'avoir des relations avec d'autres hommes, elle se voit dans l'obligation de quitter les États-Unis, en raison des attaques dont elle est la cible : « J'ai reçu des lettres de menaces. Et en 1989, quand j'ai voulu revendre les droits du livre, personne n'en a voulu, même pour 1 dollar. À cause des menaces d'attentat. Je commençais à gagner très bien ma vie et j'avais acheté une jolie maison à New York, mais j'ai dû partir. »[5]. 
-Par ailleurs, sa méthode de travail et d'étude, à savoir l'utilisation de questionnaires anonymes, a été critiquée par quelques-uns[9] : « La méthode Hite ? Envoyer 100 000 questionnaires par la poste. Attendre les réponses. Ouvrir les enveloppes. Le livre est écrit ». (The Guardian, 1994)[5].
-Expatriée en Allemagne où elle se marie en 1988[5], elle écrit notamment pour des journaux européens. Par la suite elle s'est installée au Japon où elle travaillait à l'université Nihon.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shere Hite grandit dans le Missouri, élevée par des grands-parents chrétiens et pratiquants.
+Après avoir obtenu en 1971 une maîtrise d'histoire à l'université Columbia, elle commence à fréquenter les milieux militants, défile contre la guerre du Viêt-nam et milite pour l'avortement aux côtés des féministes Ti-Grace Atkinson et Kate Millett.
+Shere Hite publie son premier rapport, le Rapport Hite, en 1976. Dans cet ouvrage, en s'appuyant sur les réponses reçues à la suite de l'envoi de milliers de questionnaires aux femmes américaines, elle démontre par une analyse statistique des réponses que la plupart des femmes parviennent souvent à l'orgasme seules par des pratiques masturbatoires et restent insatisfaites de leurs relations avec leurs partenaires masculins. Le livre est traduit dans une quinzaine de langues.
+En 1981, elle publie un autre rapport sur la sexualité masculine. À la fin des années 1980, après la publication d'un rapport en 1987 consacré aux liens entre les femmes et l'amour dans lequel elle déclare que la majorité des femmes mariées depuis plus de cinq ans essayent d'avoir des relations avec d'autres hommes, elle se voit dans l'obligation de quitter les États-Unis, en raison des attaques dont elle est la cible : « J'ai reçu des lettres de menaces. Et en 1989, quand j'ai voulu revendre les droits du livre, personne n'en a voulu, même pour 1 dollar. À cause des menaces d'attentat. Je commençais à gagner très bien ma vie et j'avais acheté une jolie maison à New York, mais j'ai dû partir. ». 
+Par ailleurs, sa méthode de travail et d'étude, à savoir l'utilisation de questionnaires anonymes, a été critiquée par quelques-uns : « La méthode Hite ? Envoyer 100 000 questionnaires par la poste. Attendre les réponses. Ouvrir les enveloppes. Le livre est écrit ». (The Guardian, 1994).
+Expatriée en Allemagne où elle se marie en 1988, elle écrit notamment pour des journaux européens. Par la suite elle s'est installée au Japon où elle travaillait à l'université Nihon.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Rapport Hite (1976)
